--- a/Boeing 717-200.xlsx
+++ b/Boeing 717-200.xlsx
@@ -112,7 +112,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 717-200</a:t>
+              <a:t> 717-200 Coughing Risk Model</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -139,7 +139,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$114</c:f>
+              <c:f>Sheet1!$D$5:$D$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="110"/>
@@ -216,273 +216,273 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>32</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>48</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>64</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>80</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>96</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>112</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>128</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>144</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>160</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>182</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>204</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>234</c:v>
+                  <c:v>1.17</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>264</c:v>
+                  <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>294</c:v>
+                  <c:v>1.47</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>324</c:v>
+                  <c:v>1.62</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>354</c:v>
+                  <c:v>1.77</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>384</c:v>
+                  <c:v>1.92</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>414</c:v>
+                  <c:v>2.0699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>444</c:v>
+                  <c:v>2.2200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>474</c:v>
+                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>504</c:v>
+                  <c:v>2.52</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>534</c:v>
+                  <c:v>2.67</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>564</c:v>
+                  <c:v>2.82</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>608</c:v>
+                  <c:v>3.04</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>652</c:v>
+                  <c:v>3.26</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>696</c:v>
+                  <c:v>3.48</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>740</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>784</c:v>
+                  <c:v>3.92</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>828</c:v>
+                  <c:v>4.1399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>872</c:v>
+                  <c:v>4.3600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>916</c:v>
+                  <c:v>4.58</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>960</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1004</c:v>
+                  <c:v>5.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1150</c:v>
+                  <c:v>5.75</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1296</c:v>
+                  <c:v>6.48</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1466</c:v>
+                  <c:v>7.33</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1650</c:v>
+                  <c:v>8.25</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1854</c:v>
+                  <c:v>9.27</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2130</c:v>
+                  <c:v>10.65</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2406</c:v>
+                  <c:v>12.03</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2698</c:v>
+                  <c:v>13.49</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2990</c:v>
+                  <c:v>14.95</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3282</c:v>
+                  <c:v>16.41</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3574</c:v>
+                  <c:v>17.87</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3866</c:v>
+                  <c:v>19.329999999999998</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4158</c:v>
+                  <c:v>20.79</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4450</c:v>
+                  <c:v>22.25</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4742</c:v>
+                  <c:v>23.71</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5034</c:v>
+                  <c:v>25.17</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5326</c:v>
+                  <c:v>26.63</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5618</c:v>
+                  <c:v>28.09</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5910</c:v>
+                  <c:v>29.55</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6202</c:v>
+                  <c:v>31.01</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6494</c:v>
+                  <c:v>32.47</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6786</c:v>
+                  <c:v>33.93</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7078</c:v>
+                  <c:v>35.39</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7386</c:v>
+                  <c:v>36.93</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7700</c:v>
+                  <c:v>38.5</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8016</c:v>
+                  <c:v>40.08</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8338</c:v>
+                  <c:v>41.69</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8662</c:v>
+                  <c:v>43.31</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8986</c:v>
+                  <c:v>44.93</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9310</c:v>
+                  <c:v>46.55</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9634</c:v>
+                  <c:v>48.17</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9958</c:v>
+                  <c:v>49.79</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>10282</c:v>
+                  <c:v>51.41</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>10606</c:v>
+                  <c:v>53.03</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>10930</c:v>
+                  <c:v>54.65</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>11268</c:v>
+                  <c:v>56.34</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>11606</c:v>
+                  <c:v>58.03</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>11944</c:v>
+                  <c:v>59.72</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>12282</c:v>
+                  <c:v>61.41</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>12620</c:v>
+                  <c:v>63.1</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>12958</c:v>
+                  <c:v>64.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>13296</c:v>
+                  <c:v>66.48</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>13634</c:v>
+                  <c:v>68.17</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>13976</c:v>
+                  <c:v>69.88</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>14340</c:v>
+                  <c:v>71.7</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>14704</c:v>
+                  <c:v>73.52</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>15068</c:v>
+                  <c:v>75.34</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>15432</c:v>
+                  <c:v>77.16</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>15796</c:v>
+                  <c:v>78.98</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>16160</c:v>
+                  <c:v>80.8</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>16524</c:v>
+                  <c:v>82.62</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>16888</c:v>
+                  <c:v>84.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="237554304"/>
-        <c:axId val="237831296"/>
+        <c:axId val="139254400"/>
+        <c:axId val="139265152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="237554304"/>
+        <c:axId val="139254400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,14 +520,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237831296"/>
+        <c:crossAx val="139265152"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237831296"/>
+        <c:axId val="139265152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -567,7 +567,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237554304"/>
+        <c:crossAx val="139254400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -576,7 +576,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -603,20 +603,26 @@
               <a:rPr lang="en-US" baseline="0"/>
               <a:t> 717-200</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> Coughing Risk Model</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$4</c:f>
+              <c:f>Sheet1!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -627,7 +633,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$114</c:f>
+              <c:f>Sheet1!$F$5:$F$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="110"/>
@@ -701,273 +707,624 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16</c:v>
+                  <c:v>7.9999999999999988E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>16</c:v>
+                  <c:v>8.0000000000000016E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>16</c:v>
+                  <c:v>8.0000000000000016E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16</c:v>
+                  <c:v>7.999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16</c:v>
+                  <c:v>8.0000000000000071E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>16</c:v>
+                  <c:v>7.999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16</c:v>
+                  <c:v>7.999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16</c:v>
+                  <c:v>8.0000000000000071E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>22</c:v>
+                  <c:v>0.10999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>22</c:v>
+                  <c:v>0.10999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>30</c:v>
+                  <c:v>0.14999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>30</c:v>
+                  <c:v>0.15000000000000013</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>30</c:v>
+                  <c:v>0.14999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>30</c:v>
+                  <c:v>0.15000000000000013</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>30</c:v>
+                  <c:v>0.14999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>30</c:v>
+                  <c:v>0.14999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>30</c:v>
+                  <c:v>0.14999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>30</c:v>
+                  <c:v>0.15000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>30</c:v>
+                  <c:v>0.14999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>30</c:v>
+                  <c:v>0.14999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>30</c:v>
+                  <c:v>0.14999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>30</c:v>
+                  <c:v>0.14999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>44</c:v>
+                  <c:v>0.2200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>44</c:v>
+                  <c:v>0.21999999999999975</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>44</c:v>
+                  <c:v>0.2200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>44</c:v>
+                  <c:v>0.2200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>44</c:v>
+                  <c:v>0.21999999999999975</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>44</c:v>
+                  <c:v>0.21999999999999975</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>44</c:v>
+                  <c:v>0.22000000000000064</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>44</c:v>
+                  <c:v>0.21999999999999975</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>44</c:v>
+                  <c:v>0.21999999999999975</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>44</c:v>
+                  <c:v>0.21999999999999975</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>146</c:v>
+                  <c:v>0.73000000000000043</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>146</c:v>
+                  <c:v>0.73000000000000043</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>170</c:v>
+                  <c:v>0.84999999999999964</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>184</c:v>
+                  <c:v>0.91999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>204</c:v>
+                  <c:v>1.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>276</c:v>
+                  <c:v>1.3800000000000008</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>276</c:v>
+                  <c:v>1.379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>292</c:v>
+                  <c:v>1.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>292</c:v>
+                  <c:v>1.4599999999999991</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>292</c:v>
+                  <c:v>1.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>292</c:v>
+                  <c:v>1.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>292</c:v>
+                  <c:v>1.4599999999999973</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>292</c:v>
+                  <c:v>1.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>292</c:v>
+                  <c:v>1.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>292</c:v>
+                  <c:v>1.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>292</c:v>
+                  <c:v>1.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>292</c:v>
+                  <c:v>1.4599999999999973</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>292</c:v>
+                  <c:v>1.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>292</c:v>
+                  <c:v>1.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>292</c:v>
+                  <c:v>1.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>292</c:v>
+                  <c:v>1.4599999999999973</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>292</c:v>
+                  <c:v>1.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>292</c:v>
+                  <c:v>1.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>308</c:v>
+                  <c:v>1.5399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>314</c:v>
+                  <c:v>1.5700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>316</c:v>
+                  <c:v>1.5799999999999983</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>322</c:v>
+                  <c:v>1.6099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>324</c:v>
+                  <c:v>1.6200000000000045</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>324</c:v>
+                  <c:v>1.6199999999999974</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>324</c:v>
+                  <c:v>1.6199999999999974</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>324</c:v>
+                  <c:v>1.6200000000000045</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>324</c:v>
+                  <c:v>1.6199999999999974</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>324</c:v>
+                  <c:v>1.6199999999999974</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>324</c:v>
+                  <c:v>1.6200000000000045</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>324</c:v>
+                  <c:v>1.6199999999999974</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>338</c:v>
+                  <c:v>1.6900000000000048</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>338</c:v>
+                  <c:v>1.6899999999999977</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>338</c:v>
+                  <c:v>1.6899999999999977</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>338</c:v>
+                  <c:v>1.6899999999999977</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>338</c:v>
+                  <c:v>1.6900000000000048</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>338</c:v>
+                  <c:v>1.6900000000000048</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>338</c:v>
+                  <c:v>1.6899999999999977</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>338</c:v>
+                  <c:v>1.6899999999999977</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>342</c:v>
+                  <c:v>1.7099999999999937</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>364</c:v>
+                  <c:v>1.8200000000000074</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>364</c:v>
+                  <c:v>1.8199999999999932</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>364</c:v>
+                  <c:v>1.8200000000000074</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>364</c:v>
+                  <c:v>1.8199999999999932</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>364</c:v>
+                  <c:v>1.8200000000000074</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>364</c:v>
+                  <c:v>1.8199999999999932</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>364</c:v>
+                  <c:v>1.8200000000000074</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>364</c:v>
+                  <c:v>1.8199999999999932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Marginal Risk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.9999999999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0000000000000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.0000000000000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.0000000000000071E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.0000000000000071E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.14999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.15000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.14999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.15000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.14999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.14999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.14999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.15000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.14999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.14999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.14999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.14999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.21999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.21999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.21999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.22000000000000064</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.21999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.21999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.21999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.73000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.73000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.84999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.91999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.4599999999999991</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.4599999999999973</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.4599999999999973</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.4599999999999973</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.5799999999999983</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.6099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.6200000000000045</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.6199999999999974</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.6199999999999974</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.6200000000000045</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.6199999999999974</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.6199999999999974</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.6200000000000045</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.6199999999999974</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.6900000000000048</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.6899999999999977</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.6899999999999977</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.6899999999999977</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.6900000000000048</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.6900000000000048</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.6899999999999977</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.6899999999999977</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.7099999999999937</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.8200000000000074</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.8199999999999932</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.8200000000000074</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.8199999999999932</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.8200000000000074</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.8199999999999932</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.8200000000000074</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.8199999999999932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="237556480"/>
-        <c:axId val="237558400"/>
+        <c:axId val="124939648"/>
+        <c:axId val="125597568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="237556480"/>
+        <c:axId val="124939648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -992,6 +1349,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -1004,14 +1362,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237558400"/>
+        <c:crossAx val="125597568"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237558400"/>
+        <c:axId val="125597568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1042,6 +1400,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1055,7 +1414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237556480"/>
+        <c:crossAx val="124939648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1064,7 +1423,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1094,6 +1453,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1454,11 +1814,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="237963520"/>
-        <c:axId val="237982080"/>
+        <c:axId val="139467008"/>
+        <c:axId val="139477376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="237963520"/>
+        <c:axId val="139467008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1483,6 +1843,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -1495,14 +1856,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237982080"/>
+        <c:crossAx val="139477376"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237982080"/>
+        <c:axId val="139477376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1528,6 +1889,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1541,7 +1903,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237963520"/>
+        <c:crossAx val="139467008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1550,7 +1912,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3467,11 +3829,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="238068864"/>
-        <c:axId val="238070784"/>
+        <c:axId val="139572352"/>
+        <c:axId val="139574272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="238068864"/>
+        <c:axId val="139572352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3509,14 +3871,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238070784"/>
+        <c:crossAx val="139574272"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238070784"/>
+        <c:axId val="139574272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3555,7 +3917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238068864"/>
+        <c:crossAx val="139572352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3564,7 +3926,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5479,11 +5841,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="238091648"/>
-        <c:axId val="238106112"/>
+        <c:axId val="139591040"/>
+        <c:axId val="139683328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="238091648"/>
+        <c:axId val="139591040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5521,14 +5883,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238106112"/>
+        <c:crossAx val="139683328"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238106112"/>
+        <c:axId val="139683328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5572,7 +5934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238091648"/>
+        <c:crossAx val="139591040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5581,7 +5943,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7144,11 +7506,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="237900928"/>
-        <c:axId val="237902848"/>
+        <c:axId val="139334784"/>
+        <c:axId val="139336704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="237900928"/>
+        <c:axId val="139334784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7186,14 +7548,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237902848"/>
+        <c:crossAx val="139336704"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237902848"/>
+        <c:axId val="139336704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25000"/>
@@ -7230,7 +7592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237900928"/>
+        <c:crossAx val="139334784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7239,7 +7601,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7249,13 +7611,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>105592</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>120832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>59872</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>37012</xdr:rowOff>
@@ -7279,13 +7641,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>109451</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>163484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>63731</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>76894</xdr:rowOff>
@@ -7309,13 +7671,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>144</xdr:row>
       <xdr:rowOff>134390</xdr:rowOff>
@@ -7720,23 +8082,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D114"/>
+  <dimension ref="A2:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="F40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -7746,11 +8108,11 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7760,8 +8122,12 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5">
+        <f>B5/200</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7772,11 +8138,19 @@
         <v>0.09</v>
       </c>
       <c r="D6">
+        <f t="shared" ref="D6:D69" si="0">B6/200</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
         <f>B6-B5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6">
+        <f>D6-D5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7787,11 +8161,19 @@
         <v>0.02</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D70" si="0">B7-B6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E70" si="1">B7-B6</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F70" si="2">D7-D6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>4</v>
       </c>
@@ -7805,8 +8187,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>5</v>
       </c>
@@ -7820,8 +8210,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7835,8 +8233,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>7</v>
       </c>
@@ -7850,8 +8256,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>8</v>
       </c>
@@ -7865,8 +8279,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>9</v>
       </c>
@@ -7880,8 +8302,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>10</v>
       </c>
@@ -7895,8 +8325,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>11</v>
       </c>
@@ -7910,8 +8348,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>12</v>
       </c>
@@ -7925,8 +8371,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>13</v>
       </c>
@@ -7940,8 +8394,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>14</v>
       </c>
@@ -7955,8 +8417,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>15</v>
       </c>
@@ -7970,8 +8440,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>16</v>
       </c>
@@ -7985,8 +8463,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>17</v>
       </c>
@@ -8000,8 +8486,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>18</v>
       </c>
@@ -8015,8 +8509,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>19</v>
       </c>
@@ -8030,8 +8532,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>20</v>
       </c>
@@ -8045,8 +8555,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>21</v>
       </c>
@@ -8060,8 +8578,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>22</v>
       </c>
@@ -8075,8 +8601,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>23</v>
       </c>
@@ -8090,8 +8624,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>24</v>
       </c>
@@ -8105,8 +8647,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>25</v>
       </c>
@@ -8118,10 +8668,18 @@
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>26</v>
       </c>
@@ -8133,10 +8691,18 @@
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>27</v>
       </c>
@@ -8148,10 +8714,18 @@
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999988E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>28</v>
       </c>
@@ -8163,10 +8737,18 @@
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>29</v>
       </c>
@@ -8178,10 +8760,18 @@
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>30</v>
       </c>
@@ -8193,10 +8783,18 @@
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>31</v>
       </c>
@@ -8208,10 +8806,18 @@
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>32</v>
       </c>
@@ -8223,10 +8829,18 @@
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>33</v>
       </c>
@@ -8238,10 +8852,18 @@
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>34</v>
       </c>
@@ -8253,10 +8875,18 @@
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>35</v>
       </c>
@@ -8268,10 +8898,18 @@
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
+        <v>0.91</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>0.10999999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>36</v>
       </c>
@@ -8283,10 +8921,18 @@
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
+        <v>1.02</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>0.10999999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>37</v>
       </c>
@@ -8298,10 +8944,18 @@
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
+        <v>1.17</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>38</v>
       </c>
@@ -8313,10 +8967,18 @@
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
+        <v>1.32</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000013</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>39</v>
       </c>
@@ -8328,10 +8990,18 @@
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
+        <v>1.47</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>40</v>
       </c>
@@ -8343,10 +9013,18 @@
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
+        <v>1.62</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>41</v>
       </c>
@@ -8358,10 +9036,18 @@
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
+        <v>1.77</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>42</v>
       </c>
@@ -8373,10 +9059,18 @@
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
+        <v>1.92</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>43</v>
       </c>
@@ -8388,10 +9082,18 @@
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>44</v>
       </c>
@@ -8403,10 +9105,18 @@
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000036</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>45</v>
       </c>
@@ -8418,10 +9128,18 @@
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
+        <v>2.37</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>46</v>
       </c>
@@ -8433,10 +9151,18 @@
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
+        <v>2.52</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>47</v>
       </c>
@@ -8448,10 +9174,18 @@
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
+        <v>2.67</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>48</v>
       </c>
@@ -8463,10 +9197,18 @@
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
+        <v>2.82</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>49</v>
       </c>
@@ -8478,10 +9220,18 @@
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
+        <v>3.04</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>0.2200000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>50</v>
       </c>
@@ -8493,10 +9243,18 @@
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
+        <v>3.26</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>0.21999999999999975</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>51</v>
       </c>
@@ -8508,10 +9266,18 @@
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
+        <v>3.48</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>0.2200000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>52</v>
       </c>
@@ -8523,10 +9289,18 @@
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
+        <v>3.7</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>0.2200000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>53</v>
       </c>
@@ -8538,10 +9312,18 @@
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
+        <v>3.92</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>0.21999999999999975</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>54</v>
       </c>
@@ -8553,10 +9335,18 @@
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>0.21999999999999975</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>55</v>
       </c>
@@ -8568,10 +9358,18 @@
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>0.22000000000000064</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>56</v>
       </c>
@@ -8583,10 +9381,18 @@
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
+        <v>4.58</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>0.21999999999999975</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>57</v>
       </c>
@@ -8598,10 +9404,18 @@
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>0.21999999999999975</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>58</v>
       </c>
@@ -8613,10 +9427,18 @@
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>0.21999999999999975</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>59</v>
       </c>
@@ -8628,10 +9450,18 @@
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
         <v>146</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>0.73000000000000043</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>60</v>
       </c>
@@ -8643,10 +9473,18 @@
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
+        <v>6.48</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
         <v>146</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>0.73000000000000043</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>61</v>
       </c>
@@ -8658,10 +9496,18 @@
       </c>
       <c r="D65">
         <f t="shared" si="0"/>
+        <v>7.33</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>0.84999999999999964</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>62</v>
       </c>
@@ -8673,10 +9519,18 @@
       </c>
       <c r="D66">
         <f t="shared" si="0"/>
+        <v>8.25</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
         <v>184</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>0.91999999999999993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>63</v>
       </c>
@@ -8688,10 +9542,18 @@
       </c>
       <c r="D67">
         <f t="shared" si="0"/>
+        <v>9.27</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="1"/>
         <v>204</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="F67">
+        <f t="shared" si="2"/>
+        <v>1.0199999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>64</v>
       </c>
@@ -8703,10 +9565,18 @@
       </c>
       <c r="D68">
         <f t="shared" si="0"/>
+        <v>10.65</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
         <v>276</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>1.3800000000000008</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>65</v>
       </c>
@@ -8718,10 +9588,18 @@
       </c>
       <c r="D69">
         <f t="shared" si="0"/>
+        <v>12.03</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
         <v>276</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>1.379999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>66</v>
       </c>
@@ -8732,11 +9610,19 @@
         <v>10.55</v>
       </c>
       <c r="D70">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D70:D114" si="3">B70/200</f>
+        <v>13.49</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>1.4600000000000009</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>67</v>
       </c>
@@ -8747,11 +9633,19 @@
         <v>17.02</v>
       </c>
       <c r="D71">
-        <f t="shared" ref="D71:D114" si="1">B71-B70</f>
+        <f t="shared" si="3"/>
+        <v>14.95</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ref="E71:E114" si="4">B71-B70</f>
         <v>292</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="F71">
+        <f t="shared" ref="F71:F114" si="5">D71-D70</f>
+        <v>1.4599999999999991</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>68</v>
       </c>
@@ -8762,11 +9656,19 @@
         <v>18.8</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>16.41</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="F72">
+        <f t="shared" si="5"/>
+        <v>1.4600000000000009</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>69</v>
       </c>
@@ -8777,11 +9679,19 @@
         <v>18.41</v>
       </c>
       <c r="D73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>17.87</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="F73">
+        <f t="shared" si="5"/>
+        <v>1.4600000000000009</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>70</v>
       </c>
@@ -8792,11 +9702,19 @@
         <v>21.86</v>
       </c>
       <c r="D74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>19.329999999999998</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="F74">
+        <f t="shared" si="5"/>
+        <v>1.4599999999999973</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>71</v>
       </c>
@@ -8807,11 +9725,19 @@
         <v>13.38</v>
       </c>
       <c r="D75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>20.79</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="F75">
+        <f t="shared" si="5"/>
+        <v>1.4600000000000009</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>72</v>
       </c>
@@ -8822,11 +9748,19 @@
         <v>19.670000000000002</v>
       </c>
       <c r="D76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>22.25</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="F76">
+        <f t="shared" si="5"/>
+        <v>1.4600000000000009</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>73</v>
       </c>
@@ -8837,11 +9771,19 @@
         <v>15.47</v>
       </c>
       <c r="D77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>23.71</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="F77">
+        <f t="shared" si="5"/>
+        <v>1.4600000000000009</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>74</v>
       </c>
@@ -8852,11 +9794,19 @@
         <v>16.28</v>
       </c>
       <c r="D78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>25.17</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="F78">
+        <f t="shared" si="5"/>
+        <v>1.4600000000000009</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>75</v>
       </c>
@@ -8867,11 +9817,19 @@
         <v>17.59</v>
       </c>
       <c r="D79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>26.63</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="F79">
+        <f t="shared" si="5"/>
+        <v>1.4599999999999973</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>76</v>
       </c>
@@ -8882,11 +9840,19 @@
         <v>10.92</v>
       </c>
       <c r="D80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>28.09</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="F80">
+        <f t="shared" si="5"/>
+        <v>1.4600000000000009</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>77</v>
       </c>
@@ -8897,11 +9863,19 @@
         <v>33.89</v>
       </c>
       <c r="D81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>29.55</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="F81">
+        <f t="shared" si="5"/>
+        <v>1.4600000000000009</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>78</v>
       </c>
@@ -8912,11 +9886,19 @@
         <v>14.36</v>
       </c>
       <c r="D82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>31.01</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="F82">
+        <f t="shared" si="5"/>
+        <v>1.4600000000000009</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>79</v>
       </c>
@@ -8927,11 +9909,19 @@
         <v>12.23</v>
       </c>
       <c r="D83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>32.47</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="F83">
+        <f t="shared" si="5"/>
+        <v>1.4599999999999973</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>80</v>
       </c>
@@ -8942,11 +9932,19 @@
         <v>10.14</v>
       </c>
       <c r="D84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>33.93</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="F84">
+        <f t="shared" si="5"/>
+        <v>1.4600000000000009</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>81</v>
       </c>
@@ -8957,11 +9955,19 @@
         <v>8.42</v>
       </c>
       <c r="D85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>35.39</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="F85">
+        <f t="shared" si="5"/>
+        <v>1.4600000000000009</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>82</v>
       </c>
@@ -8972,11 +9978,19 @@
         <v>3.84</v>
       </c>
       <c r="D86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>36.93</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="4"/>
         <v>308</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="F86">
+        <f t="shared" si="5"/>
+        <v>1.5399999999999991</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>83</v>
       </c>
@@ -8987,11 +10001,19 @@
         <v>3.86</v>
       </c>
       <c r="D87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="4"/>
         <v>314</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="F87">
+        <f t="shared" si="5"/>
+        <v>1.5700000000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>84</v>
       </c>
@@ -9002,11 +10024,19 @@
         <v>2.58</v>
       </c>
       <c r="D88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>40.08</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="4"/>
         <v>316</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="F88">
+        <f t="shared" si="5"/>
+        <v>1.5799999999999983</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>85</v>
       </c>
@@ -9017,11 +10047,19 @@
         <v>2.83</v>
       </c>
       <c r="D89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>41.69</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="4"/>
         <v>322</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="F89">
+        <f t="shared" si="5"/>
+        <v>1.6099999999999994</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>86</v>
       </c>
@@ -9032,11 +10070,19 @@
         <v>2.84</v>
       </c>
       <c r="D90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>43.31</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="4"/>
         <v>324</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="F90">
+        <f t="shared" si="5"/>
+        <v>1.6200000000000045</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>87</v>
       </c>
@@ -9047,11 +10093,19 @@
         <v>3.59</v>
       </c>
       <c r="D91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>44.93</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="4"/>
         <v>324</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="F91">
+        <f t="shared" si="5"/>
+        <v>1.6199999999999974</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>88</v>
       </c>
@@ -9062,11 +10116,19 @@
         <v>1.98</v>
       </c>
       <c r="D92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>46.55</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="4"/>
         <v>324</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="F92">
+        <f t="shared" si="5"/>
+        <v>1.6199999999999974</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>89</v>
       </c>
@@ -9077,11 +10139,19 @@
         <v>1.86</v>
       </c>
       <c r="D93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>48.17</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="4"/>
         <v>324</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="F93">
+        <f t="shared" si="5"/>
+        <v>1.6200000000000045</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>90</v>
       </c>
@@ -9092,11 +10162,19 @@
         <v>3.98</v>
       </c>
       <c r="D94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>49.79</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="4"/>
         <v>324</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="F94">
+        <f t="shared" si="5"/>
+        <v>1.6199999999999974</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>91</v>
       </c>
@@ -9107,11 +10185,19 @@
         <v>2.73</v>
       </c>
       <c r="D95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>51.41</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="4"/>
         <v>324</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="F95">
+        <f t="shared" si="5"/>
+        <v>1.6199999999999974</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>92</v>
       </c>
@@ -9122,11 +10208,19 @@
         <v>5.38</v>
       </c>
       <c r="D96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>53.03</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="4"/>
         <v>324</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="F96">
+        <f t="shared" si="5"/>
+        <v>1.6200000000000045</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>93</v>
       </c>
@@ -9137,11 +10231,19 @@
         <v>1.77</v>
       </c>
       <c r="D97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>54.65</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="4"/>
         <v>324</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="F97">
+        <f t="shared" si="5"/>
+        <v>1.6199999999999974</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>94</v>
       </c>
@@ -9152,11 +10254,19 @@
         <v>1.61</v>
       </c>
       <c r="D98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>56.34</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="4"/>
         <v>338</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="F98">
+        <f t="shared" si="5"/>
+        <v>1.6900000000000048</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>95</v>
       </c>
@@ -9167,11 +10277,19 @@
         <v>2.83</v>
       </c>
       <c r="D99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>58.03</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="4"/>
         <v>338</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="F99">
+        <f t="shared" si="5"/>
+        <v>1.6899999999999977</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>96</v>
       </c>
@@ -9182,11 +10300,19 @@
         <v>2.67</v>
       </c>
       <c r="D100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>59.72</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="4"/>
         <v>338</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="F100">
+        <f t="shared" si="5"/>
+        <v>1.6899999999999977</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>97</v>
       </c>
@@ -9197,11 +10323,19 @@
         <v>1.03</v>
       </c>
       <c r="D101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>61.41</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="4"/>
         <v>338</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="F101">
+        <f t="shared" si="5"/>
+        <v>1.6899999999999977</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>98</v>
       </c>
@@ -9212,11 +10346,19 @@
         <v>1.88</v>
       </c>
       <c r="D102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>63.1</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="4"/>
         <v>338</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="F102">
+        <f t="shared" si="5"/>
+        <v>1.6900000000000048</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>99</v>
       </c>
@@ -9227,11 +10369,19 @@
         <v>3.73</v>
       </c>
       <c r="D103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>64.790000000000006</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="4"/>
         <v>338</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="F103">
+        <f t="shared" si="5"/>
+        <v>1.6900000000000048</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>100</v>
       </c>
@@ -9242,11 +10392,19 @@
         <v>0.83</v>
       </c>
       <c r="D104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>66.48</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="4"/>
         <v>338</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="F104">
+        <f t="shared" si="5"/>
+        <v>1.6899999999999977</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>101</v>
       </c>
@@ -9257,11 +10415,19 @@
         <v>0.53</v>
       </c>
       <c r="D105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>68.17</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="4"/>
         <v>338</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="F105">
+        <f t="shared" si="5"/>
+        <v>1.6899999999999977</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>102</v>
       </c>
@@ -9272,11 +10438,19 @@
         <v>0.05</v>
       </c>
       <c r="D106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>69.88</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="4"/>
         <v>342</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="F106">
+        <f t="shared" si="5"/>
+        <v>1.7099999999999937</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>103</v>
       </c>
@@ -9287,11 +10461,19 @@
         <v>0.08</v>
       </c>
       <c r="D107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>71.7</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="4"/>
         <v>364</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="F107">
+        <f t="shared" si="5"/>
+        <v>1.8200000000000074</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>104</v>
       </c>
@@ -9302,11 +10484,19 @@
         <v>0.09</v>
       </c>
       <c r="D108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>73.52</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="4"/>
         <v>364</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="F108">
+        <f t="shared" si="5"/>
+        <v>1.8199999999999932</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>105</v>
       </c>
@@ -9317,11 +10507,19 @@
         <v>0.08</v>
       </c>
       <c r="D109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>75.34</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="4"/>
         <v>364</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="F109">
+        <f t="shared" si="5"/>
+        <v>1.8200000000000074</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>106</v>
       </c>
@@ -9332,11 +10530,19 @@
         <v>0.05</v>
       </c>
       <c r="D110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>77.16</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="4"/>
         <v>364</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="F110">
+        <f t="shared" si="5"/>
+        <v>1.8199999999999932</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>107</v>
       </c>
@@ -9347,11 +10553,19 @@
         <v>0.03</v>
       </c>
       <c r="D111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>78.98</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="4"/>
         <v>364</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="F111">
+        <f t="shared" si="5"/>
+        <v>1.8200000000000074</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>108</v>
       </c>
@@ -9362,11 +10576,19 @@
         <v>0.06</v>
       </c>
       <c r="D112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>80.8</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="4"/>
         <v>364</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="F112">
+        <f t="shared" si="5"/>
+        <v>1.8199999999999932</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>109</v>
       </c>
@@ -9377,11 +10599,19 @@
         <v>0.08</v>
       </c>
       <c r="D113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>82.62</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="4"/>
         <v>364</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="F113">
+        <f t="shared" si="5"/>
+        <v>1.8200000000000074</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>110</v>
       </c>
@@ -9392,8 +10622,16 @@
         <v>0.02</v>
       </c>
       <c r="D114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>84.44</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="4"/>
         <v>364</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="5"/>
+        <v>1.8199999999999932</v>
       </c>
     </row>
   </sheetData>

--- a/Boeing 717-200.xlsx
+++ b/Boeing 717-200.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="12">
   <si>
     <t>Boeing 717-200</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>Boeing</t>
+  </si>
+  <si>
+    <t>Normalized Risk</t>
+  </si>
+  <si>
+    <t>Normalized Marginal</t>
   </si>
 </sst>
 </file>
@@ -478,11 +484,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="139254400"/>
-        <c:axId val="139265152"/>
+        <c:axId val="206502528"/>
+        <c:axId val="206845056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139254400"/>
+        <c:axId val="206502528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,14 +526,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139265152"/>
+        <c:crossAx val="206845056"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139265152"/>
+        <c:axId val="206845056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -567,7 +573,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139254400"/>
+        <c:crossAx val="206502528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -576,7 +582,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1320,11 +1326,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="124939648"/>
-        <c:axId val="125597568"/>
+        <c:axId val="206870016"/>
+        <c:axId val="206871936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124939648"/>
+        <c:axId val="206870016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,14 +1368,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125597568"/>
+        <c:crossAx val="206871936"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125597568"/>
+        <c:axId val="206871936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1414,7 +1420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124939648"/>
+        <c:crossAx val="206870016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1423,7 +1429,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1814,11 +1820,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="139467008"/>
-        <c:axId val="139477376"/>
+        <c:axId val="206330880"/>
+        <c:axId val="206341248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139467008"/>
+        <c:axId val="206330880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1856,14 +1862,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139477376"/>
+        <c:crossAx val="206341248"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139477376"/>
+        <c:axId val="206341248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,7 +1909,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139467008"/>
+        <c:crossAx val="206330880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1912,13 +1918,1012 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Boeing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 717-200 Coughing Risk Model</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normalized Risk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.2000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.1538461538461538E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.8888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1428571428571429E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3793103448275864E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.806451612903226E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.1818181818181816E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.3529411764705882E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.8333333333333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1621621621621618E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.4736842105263156E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.7692307692307692E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.3170731707317077E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.5714285714285714E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.8139534883720927E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.045454545454546E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.2666666666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.4782608695652171E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.6808510638297872E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.8749999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.2040816326530614E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.5199999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.8235294117647061E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.1153846153846151E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.3962264150943396E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.6666666666666661E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.9272727272727272E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.1785714285714281E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.4210526315789472E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.6551724137931024E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.7457627118644072E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.10800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.12016393442622951</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.13306451612903225</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.14714285714285713</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.16640625000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.18507692307692306</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.20439393939393941</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.22313432835820896</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.24132352941176471</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.25898550724637681</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.27614285714285713</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.29281690140845068</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.30902777777777779</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.32479452054794522</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.34013513513513516</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.35506666666666664</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.36960526315789471</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.38376623376623376</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.39756410256410257</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.4110126582278481</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.42412499999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.43691358024691357</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.4503658536585366</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.46385542168674698</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.47714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.4904705882352941</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.50360465116279074</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.51643678160919537</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.52897727272727268</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.54123595505617983</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.55322222222222217</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.56494505494505487</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.57641304347826083</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.58763440860215055</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.5993617021276596</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.61084210526315785</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.62208333333333332</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.63309278350515463</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.64387755102040822</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.6544444444444445</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.66480000000000006</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.67495049504950499</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.68509803921568624</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.69611650485436893</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.70692307692307688</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.71752380952380956</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.72792452830188681</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.73813084112149541</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.74814814814814812</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.75798165137614681</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.76763636363636356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="247152640"/>
+        <c:axId val="247156096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="247152640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Number of Assigned</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t> Seats</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="247156096"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="247156096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Normalized</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t>Risk</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="247152640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Boeing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 717-200</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> Coughing Risk Model</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normalized Marginal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.2000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9538461538461537E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.735042735042735E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5396825396825397E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3645320197044351E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2068965517241367E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0645161290322595E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9354838709677406E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.818181818181816E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7112299465240656E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4705882352941202E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.3333333333333331E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.2882882882882825E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1152204836415384E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9554655870445354E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.8076923076923097E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.6707317073170755E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.5435540069686374E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.4252491694352132E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.3150105708245328E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2121212121212069E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.1159420289855041E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.0259019426457012E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.9414893617021242E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.290816326530617E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.1591836734693804E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.0352941176470666E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.9185520361990902E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.8084179970972456E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.7044025157232643E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.6060606060606117E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.5129870129870086E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.4248120300751907E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.3411978221415525E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0905902980713048E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0542372881355941E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2163934426229497E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2900581702802741E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.407834101382488E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.9263392857142875E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.867067307692305E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.931701631701635E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.874038896426955E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.8189201053555759E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7661977834612097E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7157349896480323E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.6674044265593546E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.621087636932711E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.576674277016743E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.5340614587189938E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.4931531531531483E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.4538596491228073E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.4160970608339041E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.3797868797868817E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.3448555663745532E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.311234177215187E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.2788580246913595E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.3452273411623028E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.3489568028210386E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3287435456110164E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.3327731092436956E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.3134062927496637E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.2832130446404633E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.2540491118077313E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.2258682328907144E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1986267166042341E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.1722832722832699E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.1467988533205964E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.1221365123889715E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.1727293525509053E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.1480403135498252E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.1241228070175469E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1009450171821311E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.078476751525359E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.0566893424036272E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.0355555555555562E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.0150495049504937E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.0147544166181244E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.1018465638682695E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.0806572068707943E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.0600732600732687E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.0400718778077245E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.0206312819608598E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.0017307026652711E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9.8335032279986967E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9.6547122602167468E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="249180544"/>
+        <c:axId val="249182464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="249180544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Number of Assigned</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t> Seats</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="249182464"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="249182464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Marginal</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Normalized </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t>Risk</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="249180544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3829,11 +4834,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="139572352"/>
-        <c:axId val="139574272"/>
+        <c:axId val="207017856"/>
+        <c:axId val="207020032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139572352"/>
+        <c:axId val="207017856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3871,14 +4876,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139574272"/>
+        <c:crossAx val="207020032"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139574272"/>
+        <c:axId val="207020032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3917,7 +4922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139572352"/>
+        <c:crossAx val="207017856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3926,13 +4931,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -5841,11 +6846,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="139591040"/>
-        <c:axId val="139683328"/>
+        <c:axId val="206934400"/>
+        <c:axId val="206936320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139591040"/>
+        <c:axId val="206934400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5883,14 +6888,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139683328"/>
+        <c:crossAx val="206936320"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139683328"/>
+        <c:axId val="206936320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5934,7 +6939,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139591040"/>
+        <c:crossAx val="206934400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5943,13 +6948,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -7506,11 +8511,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="139334784"/>
-        <c:axId val="139336704"/>
+        <c:axId val="207177600"/>
+        <c:axId val="207187968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139334784"/>
+        <c:axId val="207177600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7548,14 +8553,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139336704"/>
+        <c:crossAx val="207187968"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139336704"/>
+        <c:axId val="207187968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25000"/>
@@ -7592,7 +8597,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139334784"/>
+        <c:crossAx val="207177600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7601,7 +8606,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7694,6 +8699,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>96290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8082,10 +9147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F114"/>
+  <dimension ref="A2:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView tabSelected="1" topLeftCell="AC46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8093,12 +9158,12 @@
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -8111,8 +9176,14 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1</v>
       </c>
@@ -8126,8 +9197,12 @@
         <f>B5/200</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f>D5/A5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>2</v>
       </c>
@@ -8149,8 +9224,16 @@
         <f>D6-D5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f t="shared" ref="G6:G69" si="1">D6/A6</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>G6-G5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>3</v>
       </c>
@@ -8165,15 +9248,23 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E70" si="1">B7-B6</f>
+        <f t="shared" ref="E7:E70" si="2">B7-B6</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F70" si="2">D7-D6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <f t="shared" ref="F6:H70" si="3">D7-D6</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H70" si="4">G7-G6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>4</v>
       </c>
@@ -8188,15 +9279,23 @@
         <v>0</v>
       </c>
       <c r="E8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>5</v>
       </c>
@@ -8211,15 +9310,23 @@
         <v>0</v>
       </c>
       <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>6</v>
       </c>
@@ -8234,15 +9341,23 @@
         <v>0</v>
       </c>
       <c r="E10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>7</v>
       </c>
@@ -8257,15 +9372,23 @@
         <v>0</v>
       </c>
       <c r="E11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>8</v>
       </c>
@@ -8280,15 +9403,23 @@
         <v>0</v>
       </c>
       <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>9</v>
       </c>
@@ -8303,15 +9434,23 @@
         <v>0</v>
       </c>
       <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>10</v>
       </c>
@@ -8326,15 +9465,23 @@
         <v>0</v>
       </c>
       <c r="E14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>11</v>
       </c>
@@ -8349,15 +9496,23 @@
         <v>0</v>
       </c>
       <c r="E15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>12</v>
       </c>
@@ -8372,15 +9527,23 @@
         <v>0</v>
       </c>
       <c r="E16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>13</v>
       </c>
@@ -8395,15 +9558,23 @@
         <v>0</v>
       </c>
       <c r="E17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>14</v>
       </c>
@@ -8418,15 +9589,23 @@
         <v>0</v>
       </c>
       <c r="E18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>15</v>
       </c>
@@ -8441,15 +9620,23 @@
         <v>0</v>
       </c>
       <c r="E19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>16</v>
       </c>
@@ -8464,15 +9651,23 @@
         <v>0</v>
       </c>
       <c r="E20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>17</v>
       </c>
@@ -8487,15 +9682,23 @@
         <v>0</v>
       </c>
       <c r="E21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>18</v>
       </c>
@@ -8510,15 +9713,23 @@
         <v>0</v>
       </c>
       <c r="E22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>19</v>
       </c>
@@ -8533,15 +9744,23 @@
         <v>0</v>
       </c>
       <c r="E23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>20</v>
       </c>
@@ -8556,15 +9775,23 @@
         <v>0</v>
       </c>
       <c r="E24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>21</v>
       </c>
@@ -8579,15 +9806,23 @@
         <v>0</v>
       </c>
       <c r="E25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>22</v>
       </c>
@@ -8602,15 +9837,23 @@
         <v>0</v>
       </c>
       <c r="E26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>23</v>
       </c>
@@ -8625,15 +9868,23 @@
         <v>0</v>
       </c>
       <c r="E27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>24</v>
       </c>
@@ -8648,15 +9899,23 @@
         <v>0</v>
       </c>
       <c r="E28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>25</v>
       </c>
@@ -8671,15 +9930,23 @@
         <v>0.08</v>
       </c>
       <c r="E29">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>0.08</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="2"/>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>26</v>
       </c>
@@ -8694,15 +9961,23 @@
         <v>0.16</v>
       </c>
       <c r="E30">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>0.08</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="2"/>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>6.1538461538461538E-3</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>2.9538461538461537E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>27</v>
       </c>
@@ -8717,15 +9992,23 @@
         <v>0.24</v>
       </c>
       <c r="E31">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>7.9999999999999988E-2</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="2"/>
-        <v>7.9999999999999988E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>8.8888888888888889E-3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>2.735042735042735E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>28</v>
       </c>
@@ -8740,15 +10023,23 @@
         <v>0.32</v>
       </c>
       <c r="E32">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="2"/>
-        <v>8.0000000000000016E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>1.1428571428571429E-2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>2.5396825396825397E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>29</v>
       </c>
@@ -8763,15 +10054,23 @@
         <v>0.4</v>
       </c>
       <c r="E33">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="2"/>
-        <v>8.0000000000000016E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>1.3793103448275864E-2</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>2.3645320197044351E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>30</v>
       </c>
@@ -8786,15 +10085,23 @@
         <v>0.48</v>
       </c>
       <c r="E34">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="2"/>
-        <v>7.999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>2.2068965517241367E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>31</v>
       </c>
@@ -8809,15 +10116,23 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="E35">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="2"/>
-        <v>8.0000000000000071E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>1.806451612903226E-2</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>2.0645161290322595E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>32</v>
       </c>
@@ -8832,15 +10147,23 @@
         <v>0.64</v>
       </c>
       <c r="E36">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="2"/>
-        <v>7.999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="4"/>
+        <v>1.9354838709677406E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>33</v>
       </c>
@@ -8855,15 +10178,23 @@
         <v>0.72</v>
       </c>
       <c r="E37">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="2"/>
-        <v>7.999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>2.1818181818181816E-2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="4"/>
+        <v>1.818181818181816E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>34</v>
       </c>
@@ -8878,15 +10209,23 @@
         <v>0.8</v>
       </c>
       <c r="E38">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="2"/>
-        <v>8.0000000000000071E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>2.3529411764705882E-2</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="4"/>
+        <v>1.7112299465240656E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>35</v>
       </c>
@@ -8901,15 +10240,23 @@
         <v>0.91</v>
       </c>
       <c r="E39">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="2"/>
-        <v>0.10999999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="4"/>
+        <v>2.4705882352941202E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>36</v>
       </c>
@@ -8924,15 +10271,23 @@
         <v>1.02</v>
       </c>
       <c r="E40">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="2"/>
-        <v>0.10999999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>2.8333333333333335E-2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="4"/>
+        <v>2.3333333333333331E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>37</v>
       </c>
@@ -8947,15 +10302,23 @@
         <v>1.17</v>
       </c>
       <c r="E41">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="2"/>
-        <v>0.14999999999999991</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>3.1621621621621618E-2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="4"/>
+        <v>3.2882882882882825E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>38</v>
       </c>
@@ -8970,15 +10333,23 @@
         <v>1.32</v>
       </c>
       <c r="E42">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000013</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000013</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>3.4736842105263156E-2</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="4"/>
+        <v>3.1152204836415384E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>39</v>
       </c>
@@ -8993,15 +10364,23 @@
         <v>1.47</v>
       </c>
       <c r="E43">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="2"/>
-        <v>0.14999999999999991</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>3.7692307692307692E-2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="4"/>
+        <v>2.9554655870445354E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>40</v>
       </c>
@@ -9016,15 +10395,23 @@
         <v>1.62</v>
       </c>
       <c r="E44">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000013</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000013</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="4"/>
+        <v>2.8076923076923097E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>41</v>
       </c>
@@ -9039,15 +10426,23 @@
         <v>1.77</v>
       </c>
       <c r="E45">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="2"/>
-        <v>0.14999999999999991</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>4.3170731707317077E-2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="4"/>
+        <v>2.6707317073170755E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>42</v>
       </c>
@@ -9062,15 +10457,23 @@
         <v>1.92</v>
       </c>
       <c r="E46">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="3"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="2"/>
-        <v>0.14999999999999991</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>4.5714285714285714E-2</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="4"/>
+        <v>2.5435540069686374E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>43</v>
       </c>
@@ -9085,15 +10488,23 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="E47">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="3"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="G47">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="2"/>
-        <v>0.14999999999999991</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>4.8139534883720927E-2</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="4"/>
+        <v>2.4252491694352132E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>44</v>
       </c>
@@ -9108,15 +10519,23 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="E48">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000036</v>
+      </c>
+      <c r="G48">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000036</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>5.045454545454546E-2</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="4"/>
+        <v>2.3150105708245328E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>45</v>
       </c>
@@ -9131,15 +10550,23 @@
         <v>2.37</v>
       </c>
       <c r="E49">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="3"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="G49">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="2"/>
-        <v>0.14999999999999991</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>5.2666666666666667E-2</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="4"/>
+        <v>2.2121212121212069E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>46</v>
       </c>
@@ -9154,15 +10581,23 @@
         <v>2.52</v>
       </c>
       <c r="E50">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="3"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="G50">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="2"/>
-        <v>0.14999999999999991</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>5.4782608695652171E-2</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="4"/>
+        <v>2.1159420289855041E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>47</v>
       </c>
@@ -9177,15 +10612,23 @@
         <v>2.67</v>
       </c>
       <c r="E51">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="G51">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="2"/>
-        <v>0.14999999999999991</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>5.6808510638297872E-2</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="4"/>
+        <v>2.0259019426457012E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>48</v>
       </c>
@@ -9200,15 +10643,23 @@
         <v>2.82</v>
       </c>
       <c r="E52">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="G52">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="2"/>
-        <v>0.14999999999999991</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>5.8749999999999997E-2</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="4"/>
+        <v>1.9414893617021242E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>49</v>
       </c>
@@ -9223,15 +10674,23 @@
         <v>3.04</v>
       </c>
       <c r="E53">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>0.2200000000000002</v>
+      </c>
+      <c r="G53">
         <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="2"/>
-        <v>0.2200000000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>6.2040816326530614E-2</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="4"/>
+        <v>3.290816326530617E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>50</v>
       </c>
@@ -9246,15 +10705,23 @@
         <v>3.26</v>
       </c>
       <c r="E54">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="3"/>
+        <v>0.21999999999999975</v>
+      </c>
+      <c r="G54">
         <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="2"/>
-        <v>0.21999999999999975</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>6.5199999999999994E-2</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="4"/>
+        <v>3.1591836734693804E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>51</v>
       </c>
@@ -9269,15 +10736,23 @@
         <v>3.48</v>
       </c>
       <c r="E55">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="3"/>
+        <v>0.2200000000000002</v>
+      </c>
+      <c r="G55">
         <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="2"/>
-        <v>0.2200000000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>6.8235294117647061E-2</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="4"/>
+        <v>3.0352941176470666E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>52</v>
       </c>
@@ -9292,15 +10767,23 @@
         <v>3.7</v>
       </c>
       <c r="E56">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="3"/>
+        <v>0.2200000000000002</v>
+      </c>
+      <c r="G56">
         <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="2"/>
-        <v>0.2200000000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>7.1153846153846151E-2</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="4"/>
+        <v>2.9185520361990902E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>53</v>
       </c>
@@ -9315,15 +10798,23 @@
         <v>3.92</v>
       </c>
       <c r="E57">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="3"/>
+        <v>0.21999999999999975</v>
+      </c>
+      <c r="G57">
         <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="2"/>
-        <v>0.21999999999999975</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>7.3962264150943396E-2</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="4"/>
+        <v>2.8084179970972456E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>54</v>
       </c>
@@ -9338,15 +10829,23 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="E58">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="3"/>
+        <v>0.21999999999999975</v>
+      </c>
+      <c r="G58">
         <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="2"/>
-        <v>0.21999999999999975</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>7.6666666666666661E-2</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="4"/>
+        <v>2.7044025157232643E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>55</v>
       </c>
@@ -9361,15 +10860,23 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="E59">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="3"/>
+        <v>0.22000000000000064</v>
+      </c>
+      <c r="G59">
         <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="2"/>
-        <v>0.22000000000000064</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>7.9272727272727272E-2</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="4"/>
+        <v>2.6060606060606117E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>56</v>
       </c>
@@ -9384,15 +10891,23 @@
         <v>4.58</v>
       </c>
       <c r="E60">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="3"/>
+        <v>0.21999999999999975</v>
+      </c>
+      <c r="G60">
         <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="2"/>
-        <v>0.21999999999999975</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>8.1785714285714281E-2</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="4"/>
+        <v>2.5129870129870086E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>57</v>
       </c>
@@ -9407,15 +10922,23 @@
         <v>4.8</v>
       </c>
       <c r="E61">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="3"/>
+        <v>0.21999999999999975</v>
+      </c>
+      <c r="G61">
         <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="2"/>
-        <v>0.21999999999999975</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>8.4210526315789472E-2</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="4"/>
+        <v>2.4248120300751907E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>58</v>
       </c>
@@ -9430,15 +10953,23 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="E62">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="3"/>
+        <v>0.21999999999999975</v>
+      </c>
+      <c r="G62">
         <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="2"/>
-        <v>0.21999999999999975</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>8.6551724137931024E-2</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="4"/>
+        <v>2.3411978221415525E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>59</v>
       </c>
@@ -9453,15 +10984,23 @@
         <v>5.75</v>
       </c>
       <c r="E63">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="3"/>
+        <v>0.73000000000000043</v>
+      </c>
+      <c r="G63">
         <f t="shared" si="1"/>
-        <v>146</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="2"/>
-        <v>0.73000000000000043</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>9.7457627118644072E-2</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="4"/>
+        <v>1.0905902980713048E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>60</v>
       </c>
@@ -9476,15 +11015,23 @@
         <v>6.48</v>
       </c>
       <c r="E64">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="3"/>
+        <v>0.73000000000000043</v>
+      </c>
+      <c r="G64">
         <f t="shared" si="1"/>
-        <v>146</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="2"/>
-        <v>0.73000000000000043</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="4"/>
+        <v>1.0542372881355941E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>61</v>
       </c>
@@ -9499,15 +11046,23 @@
         <v>7.33</v>
       </c>
       <c r="E65">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="3"/>
+        <v>0.84999999999999964</v>
+      </c>
+      <c r="G65">
         <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="2"/>
-        <v>0.84999999999999964</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.12016393442622951</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="4"/>
+        <v>1.2163934426229497E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>62</v>
       </c>
@@ -9522,15 +11077,23 @@
         <v>8.25</v>
       </c>
       <c r="E66">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="3"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="G66">
         <f t="shared" si="1"/>
-        <v>184</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="2"/>
-        <v>0.91999999999999993</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.13306451612903225</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="4"/>
+        <v>1.2900581702802741E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>63</v>
       </c>
@@ -9545,15 +11108,23 @@
         <v>9.27</v>
       </c>
       <c r="E67">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="3"/>
+        <v>1.0199999999999996</v>
+      </c>
+      <c r="G67">
         <f t="shared" si="1"/>
-        <v>204</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="2"/>
-        <v>1.0199999999999996</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.14714285714285713</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="4"/>
+        <v>1.407834101382488E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>64</v>
       </c>
@@ -9568,15 +11139,23 @@
         <v>10.65</v>
       </c>
       <c r="E68">
+        <f t="shared" si="2"/>
+        <v>276</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="3"/>
+        <v>1.3800000000000008</v>
+      </c>
+      <c r="G68">
         <f t="shared" si="1"/>
-        <v>276</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="2"/>
-        <v>1.3800000000000008</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.16640625000000001</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="4"/>
+        <v>1.9263392857142875E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>65</v>
       </c>
@@ -9591,15 +11170,23 @@
         <v>12.03</v>
       </c>
       <c r="E69">
+        <f t="shared" si="2"/>
+        <v>276</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="3"/>
+        <v>1.379999999999999</v>
+      </c>
+      <c r="G69">
         <f t="shared" si="1"/>
-        <v>276</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="2"/>
-        <v>1.379999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.18507692307692306</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="4"/>
+        <v>1.867067307692305E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>66</v>
       </c>
@@ -9610,19 +11197,27 @@
         <v>10.55</v>
       </c>
       <c r="D70">
-        <f t="shared" ref="D70:D114" si="3">B70/200</f>
+        <f t="shared" ref="D70:D114" si="5">B70/200</f>
         <v>13.49</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>292</v>
       </c>
       <c r="F70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4600000000000009</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <f t="shared" ref="G70:G114" si="6">D70/A70</f>
+        <v>0.20439393939393941</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="4"/>
+        <v>1.931701631701635E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>67</v>
       </c>
@@ -9633,19 +11228,27 @@
         <v>17.02</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14.95</v>
       </c>
       <c r="E71">
-        <f t="shared" ref="E71:E114" si="4">B71-B70</f>
+        <f t="shared" ref="E71:E114" si="7">B71-B70</f>
         <v>292</v>
       </c>
       <c r="F71">
-        <f t="shared" ref="F71:F114" si="5">D71-D70</f>
+        <f t="shared" ref="F71:F114" si="8">D71-D70</f>
         <v>1.4599999999999991</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71">
+        <f t="shared" si="6"/>
+        <v>0.22313432835820896</v>
+      </c>
+      <c r="H71">
+        <f t="shared" ref="H71:H114" si="9">G71-G70</f>
+        <v>1.874038896426955E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>68</v>
       </c>
@@ -9656,19 +11259,27 @@
         <v>18.8</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.41</v>
       </c>
       <c r="E72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="F72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4600000000000009</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72">
+        <f t="shared" si="6"/>
+        <v>0.24132352941176471</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="9"/>
+        <v>1.8189201053555759E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>69</v>
       </c>
@@ -9679,19 +11290,27 @@
         <v>18.41</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17.87</v>
       </c>
       <c r="E73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="F73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4600000000000009</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73">
+        <f t="shared" si="6"/>
+        <v>0.25898550724637681</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="9"/>
+        <v>1.7661977834612097E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>70</v>
       </c>
@@ -9702,19 +11321,27 @@
         <v>21.86</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19.329999999999998</v>
       </c>
       <c r="E74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="F74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4599999999999973</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74">
+        <f t="shared" si="6"/>
+        <v>0.27614285714285713</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="9"/>
+        <v>1.7157349896480323E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>71</v>
       </c>
@@ -9725,19 +11352,27 @@
         <v>13.38</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20.79</v>
       </c>
       <c r="E75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="F75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4600000000000009</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75">
+        <f t="shared" si="6"/>
+        <v>0.29281690140845068</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="9"/>
+        <v>1.6674044265593546E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>72</v>
       </c>
@@ -9748,19 +11383,27 @@
         <v>19.670000000000002</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22.25</v>
       </c>
       <c r="E76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="F76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4600000000000009</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76">
+        <f t="shared" si="6"/>
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="9"/>
+        <v>1.621087636932711E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>73</v>
       </c>
@@ -9771,19 +11414,27 @@
         <v>15.47</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23.71</v>
       </c>
       <c r="E77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="F77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4600000000000009</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77">
+        <f t="shared" si="6"/>
+        <v>0.32479452054794522</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="9"/>
+        <v>1.576674277016743E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>74</v>
       </c>
@@ -9794,19 +11445,27 @@
         <v>16.28</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25.17</v>
       </c>
       <c r="E78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="F78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4600000000000009</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78">
+        <f t="shared" si="6"/>
+        <v>0.34013513513513516</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="9"/>
+        <v>1.5340614587189938E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>75</v>
       </c>
@@ -9817,19 +11476,27 @@
         <v>17.59</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26.63</v>
       </c>
       <c r="E79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="F79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4599999999999973</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <f t="shared" si="6"/>
+        <v>0.35506666666666664</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="9"/>
+        <v>1.4931531531531483E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>76</v>
       </c>
@@ -9840,19 +11507,27 @@
         <v>10.92</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>28.09</v>
       </c>
       <c r="E80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="F80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4600000000000009</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80">
+        <f t="shared" si="6"/>
+        <v>0.36960526315789471</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="9"/>
+        <v>1.4538596491228073E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>77</v>
       </c>
@@ -9863,19 +11538,27 @@
         <v>33.89</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>29.55</v>
       </c>
       <c r="E81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="F81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4600000000000009</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81">
+        <f t="shared" si="6"/>
+        <v>0.38376623376623376</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="9"/>
+        <v>1.4160970608339041E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>78</v>
       </c>
@@ -9886,19 +11569,27 @@
         <v>14.36</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>31.01</v>
       </c>
       <c r="E82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="F82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4600000000000009</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <f t="shared" si="6"/>
+        <v>0.39756410256410257</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="9"/>
+        <v>1.3797868797868817E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>79</v>
       </c>
@@ -9909,19 +11600,27 @@
         <v>12.23</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>32.47</v>
       </c>
       <c r="E83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="F83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4599999999999973</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83">
+        <f t="shared" si="6"/>
+        <v>0.4110126582278481</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="9"/>
+        <v>1.3448555663745532E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>80</v>
       </c>
@@ -9932,19 +11631,27 @@
         <v>10.14</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>33.93</v>
       </c>
       <c r="E84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="F84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4600000000000009</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <f t="shared" si="6"/>
+        <v>0.42412499999999997</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="9"/>
+        <v>1.311234177215187E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>81</v>
       </c>
@@ -9955,19 +11662,27 @@
         <v>8.42</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>35.39</v>
       </c>
       <c r="E85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="F85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4600000000000009</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85">
+        <f t="shared" si="6"/>
+        <v>0.43691358024691357</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="9"/>
+        <v>1.2788580246913595E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>82</v>
       </c>
@@ -9978,19 +11693,27 @@
         <v>3.84</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>36.93</v>
       </c>
       <c r="E86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>308</v>
       </c>
       <c r="F86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5399999999999991</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86">
+        <f t="shared" si="6"/>
+        <v>0.4503658536585366</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="9"/>
+        <v>1.3452273411623028E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>83</v>
       </c>
@@ -10001,19 +11724,27 @@
         <v>3.86</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>38.5</v>
       </c>
       <c r="E87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>314</v>
       </c>
       <c r="F87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5700000000000003</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87">
+        <f t="shared" si="6"/>
+        <v>0.46385542168674698</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="9"/>
+        <v>1.3489568028210386E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>84</v>
       </c>
@@ -10024,19 +11755,27 @@
         <v>2.58</v>
       </c>
       <c r="D88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40.08</v>
       </c>
       <c r="E88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>316</v>
       </c>
       <c r="F88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5799999999999983</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88">
+        <f t="shared" si="6"/>
+        <v>0.47714285714285715</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="9"/>
+        <v>1.3287435456110164E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>85</v>
       </c>
@@ -10047,19 +11786,27 @@
         <v>2.83</v>
       </c>
       <c r="D89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41.69</v>
       </c>
       <c r="E89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>322</v>
       </c>
       <c r="F89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6099999999999994</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89">
+        <f t="shared" si="6"/>
+        <v>0.4904705882352941</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="9"/>
+        <v>1.3327731092436956E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>86</v>
       </c>
@@ -10070,19 +11817,27 @@
         <v>2.84</v>
       </c>
       <c r="D90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43.31</v>
       </c>
       <c r="E90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>324</v>
       </c>
       <c r="F90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6200000000000045</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90">
+        <f t="shared" si="6"/>
+        <v>0.50360465116279074</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="9"/>
+        <v>1.3134062927496637E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>87</v>
       </c>
@@ -10093,19 +11848,27 @@
         <v>3.59</v>
       </c>
       <c r="D91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44.93</v>
       </c>
       <c r="E91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>324</v>
       </c>
       <c r="F91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6199999999999974</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91">
+        <f t="shared" si="6"/>
+        <v>0.51643678160919537</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="9"/>
+        <v>1.2832130446404633E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>88</v>
       </c>
@@ -10116,19 +11879,27 @@
         <v>1.98</v>
       </c>
       <c r="D92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>46.55</v>
       </c>
       <c r="E92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>324</v>
       </c>
       <c r="F92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6199999999999974</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92">
+        <f t="shared" si="6"/>
+        <v>0.52897727272727268</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="9"/>
+        <v>1.2540491118077313E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>89</v>
       </c>
@@ -10139,19 +11910,27 @@
         <v>1.86</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>48.17</v>
       </c>
       <c r="E93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>324</v>
       </c>
       <c r="F93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6200000000000045</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93">
+        <f t="shared" si="6"/>
+        <v>0.54123595505617983</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="9"/>
+        <v>1.2258682328907144E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>90</v>
       </c>
@@ -10162,19 +11941,27 @@
         <v>3.98</v>
       </c>
       <c r="D94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>49.79</v>
       </c>
       <c r="E94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>324</v>
       </c>
       <c r="F94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6199999999999974</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94">
+        <f t="shared" si="6"/>
+        <v>0.55322222222222217</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="9"/>
+        <v>1.1986267166042341E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>91</v>
       </c>
@@ -10185,19 +11972,27 @@
         <v>2.73</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>51.41</v>
       </c>
       <c r="E95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>324</v>
       </c>
       <c r="F95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6199999999999974</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95">
+        <f t="shared" si="6"/>
+        <v>0.56494505494505487</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="9"/>
+        <v>1.1722832722832699E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>92</v>
       </c>
@@ -10208,19 +12003,27 @@
         <v>5.38</v>
       </c>
       <c r="D96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>53.03</v>
       </c>
       <c r="E96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>324</v>
       </c>
       <c r="F96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6200000000000045</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <f t="shared" si="6"/>
+        <v>0.57641304347826083</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="9"/>
+        <v>1.1467988533205964E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>93</v>
       </c>
@@ -10231,19 +12034,27 @@
         <v>1.77</v>
       </c>
       <c r="D97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>54.65</v>
       </c>
       <c r="E97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>324</v>
       </c>
       <c r="F97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6199999999999974</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <f t="shared" si="6"/>
+        <v>0.58763440860215055</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="9"/>
+        <v>1.1221365123889715E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>94</v>
       </c>
@@ -10254,19 +12065,27 @@
         <v>1.61</v>
       </c>
       <c r="D98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>56.34</v>
       </c>
       <c r="E98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>338</v>
       </c>
       <c r="F98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6900000000000048</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98">
+        <f t="shared" si="6"/>
+        <v>0.5993617021276596</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="9"/>
+        <v>1.1727293525509053E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>95</v>
       </c>
@@ -10277,19 +12096,27 @@
         <v>2.83</v>
       </c>
       <c r="D99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>58.03</v>
       </c>
       <c r="E99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>338</v>
       </c>
       <c r="F99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6899999999999977</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <f t="shared" si="6"/>
+        <v>0.61084210526315785</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="9"/>
+        <v>1.1480403135498252E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>96</v>
       </c>
@@ -10300,19 +12127,27 @@
         <v>2.67</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>59.72</v>
       </c>
       <c r="E100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>338</v>
       </c>
       <c r="F100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6899999999999977</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <f t="shared" si="6"/>
+        <v>0.62208333333333332</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="9"/>
+        <v>1.1241228070175469E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>97</v>
       </c>
@@ -10323,19 +12158,27 @@
         <v>1.03</v>
       </c>
       <c r="D101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>61.41</v>
       </c>
       <c r="E101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>338</v>
       </c>
       <c r="F101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6899999999999977</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101">
+        <f t="shared" si="6"/>
+        <v>0.63309278350515463</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="9"/>
+        <v>1.1009450171821311E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>98</v>
       </c>
@@ -10346,19 +12189,27 @@
         <v>1.88</v>
       </c>
       <c r="D102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>63.1</v>
       </c>
       <c r="E102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>338</v>
       </c>
       <c r="F102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6900000000000048</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <f t="shared" si="6"/>
+        <v>0.64387755102040822</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="9"/>
+        <v>1.078476751525359E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>99</v>
       </c>
@@ -10369,19 +12220,27 @@
         <v>3.73</v>
       </c>
       <c r="D103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>64.790000000000006</v>
       </c>
       <c r="E103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>338</v>
       </c>
       <c r="F103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6900000000000048</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <f t="shared" si="6"/>
+        <v>0.6544444444444445</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="9"/>
+        <v>1.0566893424036272E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>100</v>
       </c>
@@ -10392,19 +12251,27 @@
         <v>0.83</v>
       </c>
       <c r="D104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>66.48</v>
       </c>
       <c r="E104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>338</v>
       </c>
       <c r="F104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6899999999999977</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104">
+        <f t="shared" si="6"/>
+        <v>0.66480000000000006</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="9"/>
+        <v>1.0355555555555562E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>101</v>
       </c>
@@ -10415,19 +12282,27 @@
         <v>0.53</v>
       </c>
       <c r="D105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>68.17</v>
       </c>
       <c r="E105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>338</v>
       </c>
       <c r="F105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6899999999999977</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105">
+        <f t="shared" si="6"/>
+        <v>0.67495049504950499</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="9"/>
+        <v>1.0150495049504937E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>102</v>
       </c>
@@ -10438,19 +12313,27 @@
         <v>0.05</v>
       </c>
       <c r="D106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>69.88</v>
       </c>
       <c r="E106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>342</v>
       </c>
       <c r="F106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.7099999999999937</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106">
+        <f t="shared" si="6"/>
+        <v>0.68509803921568624</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="9"/>
+        <v>1.0147544166181244E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>103</v>
       </c>
@@ -10461,19 +12344,27 @@
         <v>0.08</v>
       </c>
       <c r="D107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>71.7</v>
       </c>
       <c r="E107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>364</v>
       </c>
       <c r="F107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8200000000000074</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107">
+        <f t="shared" si="6"/>
+        <v>0.69611650485436893</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="9"/>
+        <v>1.1018465638682695E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>104</v>
       </c>
@@ -10484,19 +12375,27 @@
         <v>0.09</v>
       </c>
       <c r="D108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>73.52</v>
       </c>
       <c r="E108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>364</v>
       </c>
       <c r="F108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8199999999999932</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108">
+        <f t="shared" si="6"/>
+        <v>0.70692307692307688</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="9"/>
+        <v>1.0806572068707943E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>105</v>
       </c>
@@ -10507,19 +12406,27 @@
         <v>0.08</v>
       </c>
       <c r="D109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>75.34</v>
       </c>
       <c r="E109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>364</v>
       </c>
       <c r="F109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8200000000000074</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109">
+        <f t="shared" si="6"/>
+        <v>0.71752380952380956</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="9"/>
+        <v>1.0600732600732687E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>106</v>
       </c>
@@ -10530,19 +12437,27 @@
         <v>0.05</v>
       </c>
       <c r="D110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>77.16</v>
       </c>
       <c r="E110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>364</v>
       </c>
       <c r="F110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8199999999999932</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110">
+        <f t="shared" si="6"/>
+        <v>0.72792452830188681</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="9"/>
+        <v>1.0400718778077245E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>107</v>
       </c>
@@ -10553,19 +12468,27 @@
         <v>0.03</v>
       </c>
       <c r="D111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>78.98</v>
       </c>
       <c r="E111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>364</v>
       </c>
       <c r="F111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8200000000000074</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111">
+        <f t="shared" si="6"/>
+        <v>0.73813084112149541</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="9"/>
+        <v>1.0206312819608598E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>108</v>
       </c>
@@ -10576,19 +12499,27 @@
         <v>0.06</v>
       </c>
       <c r="D112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>80.8</v>
       </c>
       <c r="E112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>364</v>
       </c>
       <c r="F112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8199999999999932</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112">
+        <f t="shared" si="6"/>
+        <v>0.74814814814814812</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="9"/>
+        <v>1.0017307026652711E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>109</v>
       </c>
@@ -10599,19 +12530,27 @@
         <v>0.08</v>
       </c>
       <c r="D113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>82.62</v>
       </c>
       <c r="E113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>364</v>
       </c>
       <c r="F113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8200000000000074</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113">
+        <f t="shared" si="6"/>
+        <v>0.75798165137614681</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="9"/>
+        <v>9.8335032279986967E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>110</v>
       </c>
@@ -10622,16 +12561,24 @@
         <v>0.02</v>
       </c>
       <c r="D114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84.44</v>
       </c>
       <c r="E114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>364</v>
       </c>
       <c r="F114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8199999999999932</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="6"/>
+        <v>0.76763636363636356</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="9"/>
+        <v>9.6547122602167468E-3</v>
       </c>
     </row>
   </sheetData>
